--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3a</t>
   </si>
   <si>
     <t>Plxna1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H2">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.788186999999999</v>
+        <v>7.368211</v>
       </c>
       <c r="N2">
-        <v>29.364561</v>
+        <v>22.104633</v>
       </c>
       <c r="O2">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="P2">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="Q2">
-        <v>10.052197242493</v>
+        <v>6.042483179754667</v>
       </c>
       <c r="R2">
-        <v>90.46977518243699</v>
+        <v>54.382348617792</v>
       </c>
       <c r="S2">
-        <v>0.03519942177783805</v>
+        <v>0.005519104816484387</v>
       </c>
       <c r="T2">
-        <v>0.03519942177783805</v>
+        <v>0.005519104816484387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H3">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.05628333333333</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N3">
-        <v>54.16884999999999</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O3">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059877</v>
       </c>
       <c r="P3">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059876</v>
       </c>
       <c r="Q3">
-        <v>18.54330342616111</v>
+        <v>14.80750053582223</v>
       </c>
       <c r="R3">
-        <v>166.88973083545</v>
+        <v>133.2675048224</v>
       </c>
       <c r="S3">
-        <v>0.06493242648410247</v>
+        <v>0.01352492759949556</v>
       </c>
       <c r="T3">
-        <v>0.06493242648410247</v>
+        <v>0.01352492759949556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H4">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.165572</v>
+        <v>18.794071</v>
       </c>
       <c r="N4">
-        <v>42.496716</v>
+        <v>56.38221299999999</v>
       </c>
       <c r="O4">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716344</v>
       </c>
       <c r="P4">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716343</v>
       </c>
       <c r="Q4">
-        <v>14.54765052984133</v>
+        <v>15.41254151063467</v>
       </c>
       <c r="R4">
-        <v>130.928854768572</v>
+        <v>138.712873595712</v>
       </c>
       <c r="S4">
-        <v>0.05094099076287906</v>
+        <v>0.01407756208087004</v>
       </c>
       <c r="T4">
-        <v>0.05094099076287906</v>
+        <v>0.01407756208087004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H5">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.510488</v>
+        <v>13.338818</v>
       </c>
       <c r="N5">
-        <v>43.531464</v>
+        <v>40.016454</v>
       </c>
       <c r="O5">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="P5">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="Q5">
-        <v>14.90186971916533</v>
+        <v>10.93882672507733</v>
       </c>
       <c r="R5">
-        <v>134.116827472488</v>
+        <v>98.44944052569599</v>
       </c>
       <c r="S5">
-        <v>0.05218134750738392</v>
+        <v>0.009991344529901304</v>
       </c>
       <c r="T5">
-        <v>0.05218134750738392</v>
+        <v>0.009991344529901304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.788186999999999</v>
+        <v>7.368211</v>
       </c>
       <c r="N6">
-        <v>29.364561</v>
+        <v>22.104633</v>
       </c>
       <c r="O6">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="P6">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="Q6">
-        <v>13.292664642526</v>
+        <v>10.00626140861134</v>
       </c>
       <c r="R6">
-        <v>119.633981782734</v>
+        <v>90.05635267750201</v>
       </c>
       <c r="S6">
-        <v>0.04654645128984628</v>
+        <v>0.009139554698356794</v>
       </c>
       <c r="T6">
-        <v>0.04654645128984628</v>
+        <v>0.009139554698356794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.05628333333333</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N7">
-        <v>54.16884999999999</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O7">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059877</v>
       </c>
       <c r="P7">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059876</v>
       </c>
       <c r="Q7">
-        <v>24.52099853021111</v>
+        <v>24.52099853021112</v>
       </c>
       <c r="R7">
-        <v>220.6889867719</v>
+        <v>220.6889867719001</v>
       </c>
       <c r="S7">
-        <v>0.08586430895227719</v>
+        <v>0.0223970770074348</v>
       </c>
       <c r="T7">
-        <v>0.08586430895227719</v>
+        <v>0.02239707700743479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.165572</v>
+        <v>18.794071</v>
       </c>
       <c r="N8">
-        <v>42.496716</v>
+        <v>56.38221299999999</v>
       </c>
       <c r="O8">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716344</v>
       </c>
       <c r="P8">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716343</v>
       </c>
       <c r="Q8">
-        <v>19.23729063058934</v>
+        <v>25.52293729889134</v>
       </c>
       <c r="R8">
-        <v>173.135615675304</v>
+        <v>229.706435690022</v>
       </c>
       <c r="S8">
-        <v>0.067362536810015</v>
+        <v>0.02331223140994485</v>
       </c>
       <c r="T8">
-        <v>0.067362536810015</v>
+        <v>0.02331223140994485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.510488</v>
+        <v>13.338818</v>
       </c>
       <c r="N9">
-        <v>43.531464</v>
+        <v>40.016454</v>
       </c>
       <c r="O9">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="P9">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="Q9">
-        <v>19.70569736595734</v>
+        <v>18.11453279363067</v>
       </c>
       <c r="R9">
-        <v>177.351276293616</v>
+        <v>163.030795142676</v>
       </c>
       <c r="S9">
-        <v>0.06900274002569617</v>
+        <v>0.01654551650630338</v>
       </c>
       <c r="T9">
-        <v>0.06900274002569617</v>
+        <v>0.01654551650630338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H10">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.788186999999999</v>
+        <v>7.368211</v>
       </c>
       <c r="N10">
-        <v>29.364561</v>
+        <v>22.104633</v>
       </c>
       <c r="O10">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="P10">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="Q10">
-        <v>26.11142442325999</v>
+        <v>123.9870969603</v>
       </c>
       <c r="R10">
-        <v>235.0028198093399</v>
+        <v>1115.8838726427</v>
       </c>
       <c r="S10">
-        <v>0.09143344677014381</v>
+        <v>0.1132477763956791</v>
       </c>
       <c r="T10">
-        <v>0.09143344677014381</v>
+        <v>0.1132477763956791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H11">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.05628333333333</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N11">
-        <v>54.16884999999999</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O11">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059877</v>
       </c>
       <c r="P11">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059876</v>
       </c>
       <c r="Q11">
-        <v>48.16778404655554</v>
+        <v>303.838496535</v>
       </c>
       <c r="R11">
-        <v>433.5100564189999</v>
+        <v>2734.546468815</v>
       </c>
       <c r="S11">
-        <v>0.1686674172678728</v>
+        <v>0.2775210885614378</v>
       </c>
       <c r="T11">
-        <v>0.1686674172678728</v>
+        <v>0.2775210885614378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H12">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.165572</v>
+        <v>18.794071</v>
       </c>
       <c r="N12">
-        <v>42.496716</v>
+        <v>56.38221299999999</v>
       </c>
       <c r="O12">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716344</v>
       </c>
       <c r="P12">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716343</v>
       </c>
       <c r="Q12">
-        <v>37.78874092722666</v>
+        <v>316.2534709382999</v>
       </c>
       <c r="R12">
-        <v>340.0986683450399</v>
+        <v>2846.281238444699</v>
       </c>
       <c r="S12">
-        <v>0.1323234909008828</v>
+        <v>0.2888607221172841</v>
       </c>
       <c r="T12">
-        <v>0.1323234909008828</v>
+        <v>0.2888607221172841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.8273</v>
+      </c>
+      <c r="H13">
+        <v>50.4819</v>
+      </c>
+      <c r="I13">
+        <v>0.8846442749337277</v>
+      </c>
+      <c r="J13">
+        <v>0.8846442749337278</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.338818</v>
+      </c>
+      <c r="N13">
+        <v>40.016454</v>
+      </c>
+      <c r="O13">
+        <v>0.2317481655264036</v>
+      </c>
+      <c r="P13">
+        <v>0.2317481655264036</v>
+      </c>
+      <c r="Q13">
+        <v>224.4562921313999</v>
+      </c>
+      <c r="R13">
+        <v>2020.1066291826</v>
+      </c>
+      <c r="S13">
+        <v>0.2050146878593269</v>
+      </c>
+      <c r="T13">
+        <v>0.2050146878593269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.667646666666666</v>
-      </c>
-      <c r="H13">
-        <v>8.002939999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="J13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.510488</v>
-      </c>
-      <c r="N13">
-        <v>43.531464</v>
-      </c>
-      <c r="O13">
-        <v>0.2567295089841425</v>
-      </c>
-      <c r="P13">
-        <v>0.2567295089841425</v>
-      </c>
-      <c r="Q13">
-        <v>38.70885494490666</v>
-      </c>
-      <c r="R13">
-        <v>348.3796945041599</v>
-      </c>
-      <c r="S13">
-        <v>0.1355454214510625</v>
-      </c>
-      <c r="T13">
-        <v>0.1355454214510625</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.016138</v>
+      </c>
+      <c r="H14">
+        <v>0.048414</v>
+      </c>
+      <c r="I14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.368211</v>
+      </c>
+      <c r="N14">
+        <v>22.104633</v>
+      </c>
+      <c r="O14">
+        <v>0.1280150446959744</v>
+      </c>
+      <c r="P14">
+        <v>0.1280150446959744</v>
+      </c>
+      <c r="Q14">
+        <v>0.118908189118</v>
+      </c>
+      <c r="R14">
+        <v>1.070173702062</v>
+      </c>
+      <c r="S14">
+        <v>0.0001086087854542005</v>
+      </c>
+      <c r="T14">
+        <v>0.0001086087854542005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.016138</v>
+      </c>
+      <c r="H15">
+        <v>0.048414</v>
+      </c>
+      <c r="I15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.05628333333334</v>
+      </c>
+      <c r="N15">
+        <v>54.16885000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3137092461059877</v>
+      </c>
+      <c r="P15">
+        <v>0.3137092461059876</v>
+      </c>
+      <c r="Q15">
+        <v>0.2913923004333334</v>
+      </c>
+      <c r="R15">
+        <v>2.6225307039</v>
+      </c>
+      <c r="S15">
+        <v>0.0002661529376194924</v>
+      </c>
+      <c r="T15">
+        <v>0.0002661529376194923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.016138</v>
+      </c>
+      <c r="H16">
+        <v>0.048414</v>
+      </c>
+      <c r="I16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.794071</v>
+      </c>
+      <c r="N16">
+        <v>56.38221299999999</v>
+      </c>
+      <c r="O16">
+        <v>0.3265275436716344</v>
+      </c>
+      <c r="P16">
+        <v>0.3265275436716343</v>
+      </c>
+      <c r="Q16">
+        <v>0.303298717798</v>
+      </c>
+      <c r="R16">
+        <v>2.729688460182</v>
+      </c>
+      <c r="S16">
+        <v>0.00027702806353537</v>
+      </c>
+      <c r="T16">
+        <v>0.00027702806353537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016138</v>
+      </c>
+      <c r="H17">
+        <v>0.048414</v>
+      </c>
+      <c r="I17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.338818</v>
+      </c>
+      <c r="N17">
+        <v>40.016454</v>
+      </c>
+      <c r="O17">
+        <v>0.2317481655264036</v>
+      </c>
+      <c r="P17">
+        <v>0.2317481655264036</v>
+      </c>
+      <c r="Q17">
+        <v>0.215261844884</v>
+      </c>
+      <c r="R17">
+        <v>1.937356603956</v>
+      </c>
+      <c r="S17">
+        <v>0.0001966166308720839</v>
+      </c>
+      <c r="T17">
+        <v>0.0001966166308720839</v>
       </c>
     </row>
   </sheetData>
